--- a/Question-Answer-Bank-Updated.xlsx
+++ b/Question-Answer-Bank-Updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chvya\Documents\AI Physics Writing\GPT-4 Answers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AC47BD-4F4E-4DDE-894D-6565EB60FA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE37056-38E9-44F2-8760-356EF57A35D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="150">
   <si>
     <t>ID</t>
   </si>
@@ -43,9 +43,18 @@
     <t>Answer</t>
   </si>
   <si>
+    <t>davincii-002</t>
+  </si>
+  <si>
     <t>Mark</t>
   </si>
   <si>
+    <t>gpt-3.5-turbo</t>
+  </si>
+  <si>
+    <t>GPT-4</t>
+  </si>
+  <si>
     <t>AI Mark</t>
   </si>
   <si>
@@ -64,6 +73,12 @@
     <t>How many significant figures does following number have: 214</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>The given number '214' has 3 significant figures.</t>
+  </si>
+  <si>
     <t>Type key</t>
   </si>
   <si>
@@ -76,6 +91,12 @@
     <t>How many significant figures does following number have: 81.60</t>
   </si>
   <si>
+    <t>The number has five significant figures.</t>
+  </si>
+  <si>
+    <t>The number 81.60 has four significant figures.</t>
+  </si>
+  <si>
     <t>D</t>
   </si>
   <si>
@@ -88,6 +109,12 @@
     <t>How many significant figures does following number have: 7.03</t>
   </si>
   <si>
+    <t>The number has three significant figures.</t>
+  </si>
+  <si>
+    <t>The number 7.03 has 3 significant figures.</t>
+  </si>
+  <si>
     <t>W</t>
   </si>
   <si>
@@ -98,6 +125,9 @@
   </si>
   <si>
     <t>How many significant figures does following number have: 0.03</t>
+  </si>
+  <si>
+    <t>0.03 has two significant figures.</t>
   </si>
   <si>
     <t>1.1e</t>
@@ -441,9 +471,6 @@
   </si>
   <si>
     <t>35.9 kcal</t>
-  </si>
-  <si>
-    <t>Response Model</t>
   </si>
 </sst>
 </file>
@@ -806,11 +833,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S47"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -820,13 +847,16 @@
     <col min="4" max="4" width="6" customWidth="1"/>
     <col min="5" max="5" width="3" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="9" max="9" width="4.21875" customWidth="1"/>
-    <col min="11" max="11" width="4.21875" customWidth="1"/>
-    <col min="13" max="13" width="4.21875" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" customWidth="1"/>
+    <col min="9" max="9" width="4.88671875" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.77734375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" style="1" customWidth="1"/>
     <col min="14" max="14" width="4.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -849,454 +879,478 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>140</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" t="s">
+        <v>15</v>
+      </c>
       <c r="Q2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G3">
         <v>4</v>
       </c>
-      <c r="R3" t="s">
-        <v>18</v>
-      </c>
-      <c r="S3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
-      <c r="R4" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G6">
         <v>2</v>
       </c>
+      <c r="O6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" t="s">
+        <v>14</v>
+      </c>
       <c r="Q6" t="s">
-        <v>28</v>
-      </c>
-      <c r="R6" t="s">
-        <v>11</v>
-      </c>
-      <c r="S6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G7">
         <v>4</v>
       </c>
-      <c r="R7" t="s">
-        <v>32</v>
-      </c>
-      <c r="S7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G8">
         <v>2</v>
       </c>
-      <c r="R8" t="s">
-        <v>36</v>
-      </c>
-      <c r="S8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G9">
         <v>86900</v>
       </c>
-      <c r="R9" t="s">
-        <v>40</v>
-      </c>
-      <c r="S9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P9" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G10">
         <v>9100</v>
       </c>
-      <c r="R10" t="s">
-        <v>44</v>
-      </c>
-      <c r="S10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P10" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G11">
         <v>0.88</v>
       </c>
-      <c r="R11" t="s">
-        <v>48</v>
-      </c>
-      <c r="S11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G12">
         <v>476</v>
       </c>
-      <c r="R12" t="s">
-        <v>52</v>
-      </c>
-      <c r="S12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P12" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="G13">
         <v>3.6199999999999999E-5</v>
       </c>
-      <c r="R13" t="s">
-        <v>56</v>
-      </c>
-      <c r="S13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P13" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C14">
         <v>1.5</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="G14" s="2">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="R14" t="s">
-        <v>59</v>
-      </c>
-      <c r="S14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P14" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="R15" t="s">
-        <v>64</v>
-      </c>
-      <c r="S15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="P15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1304,22 +1358,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1327,22 +1381,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G18" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1350,22 +1404,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G19" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1373,22 +1427,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1396,19 +1450,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G21">
         <v>500</v>
@@ -1419,22 +1473,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C22">
         <v>2.1</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="G22" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1442,22 +1496,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C23">
         <v>2.2999999999999998</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="G23" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1465,22 +1519,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C24">
         <v>2.5</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="G24" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1488,22 +1542,22 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G25" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1511,22 +1565,22 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F26" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G26" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1534,22 +1588,22 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D27" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F27" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="G27" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1557,19 +1611,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F28" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1580,22 +1634,22 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C29">
         <v>2.11</v>
       </c>
       <c r="D29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F29" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G29" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1603,22 +1657,22 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C30">
         <v>2.13</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F30" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G30" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1626,22 +1680,22 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C31">
         <v>2.15</v>
       </c>
       <c r="D31" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F31" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G31" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1649,22 +1703,22 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C32">
         <v>2.17</v>
       </c>
       <c r="D32" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F32" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G32" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1672,22 +1726,22 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C33">
         <v>2.25</v>
       </c>
       <c r="D33" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F33" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G33" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -1695,22 +1749,22 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C34">
         <v>2.27</v>
       </c>
       <c r="D34" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F34" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G34" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -1718,22 +1772,22 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C35">
         <v>2.29</v>
       </c>
       <c r="D35" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F35" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G35" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -1741,22 +1795,22 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D36" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E36" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F36" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G36" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -1764,22 +1818,22 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D37" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E37" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F37" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G37" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -1787,22 +1841,22 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C38">
         <v>2.33</v>
       </c>
       <c r="D38" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E38" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F38" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G38" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -1810,22 +1864,22 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C39">
         <v>2.35</v>
       </c>
       <c r="D39" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F39" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G39" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -1833,22 +1887,22 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C40">
         <v>2.37</v>
       </c>
       <c r="D40" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F40" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G40" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -1856,22 +1910,22 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C41">
         <v>2.39</v>
       </c>
       <c r="D41" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E41" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F41" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="G41" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -1879,22 +1933,22 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C42">
         <v>14.1</v>
       </c>
       <c r="D42" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F42" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="G42" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -1902,22 +1956,22 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C43">
         <v>14.3</v>
       </c>
       <c r="D43" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E43" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F43" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="G43" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -1925,22 +1979,22 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C44">
         <v>14.5</v>
       </c>
       <c r="D44" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E44" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F44" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="G44" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -1948,19 +2002,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C45">
         <v>14.7</v>
       </c>
       <c r="D45" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E45" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F45" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="G45">
         <v>10.8</v>
@@ -1971,22 +2025,22 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C46">
         <v>14.9</v>
       </c>
       <c r="D46" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E46" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F46" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="G46" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -1994,22 +2048,22 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C47">
         <v>14.11</v>
       </c>
       <c r="D47" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E47" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F47" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="G47" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
